--- a/data/trans_dic/P35_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que bebe alcohol diariamente</t>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 17,5</t>
+          <t>0,0; 14,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 16,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,95</t>
+          <t>0,0; 19,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 19,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,18</t>
+          <t>0,0; 12,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 10,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 10,11</t>
+          <t>0,0; 16,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 12,45</t>
+          <t>0,0; 9,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 15,16</t>
+          <t>1,4; 17,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,55</t>
+          <t>0,0; 14,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 13,91</t>
+          <t>1,31; 16,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,29</t>
+          <t>1,06; 14,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 14,21</t>
+          <t>1,57; 14,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,55</t>
+          <t>0,0; 12,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,17</t>
+          <t>1,54; 12,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,86</t>
+          <t>0,0; 13,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,72</t>
+          <t>2,1; 10,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 8,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 10,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 10,06</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,9</t>
+          <t>4,95; 22,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 21,8</t>
+          <t>7,11; 24,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,05</t>
+          <t>3,08; 16,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,56</t>
+          <t>3,77; 19,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,44</t>
+          <t>0,96; 8,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,46</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,29</t>
+          <t>0,82; 6,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 10,77</t>
+          <t>0,79; 8,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,52</t>
+          <t>3,58; 12,67</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 11,91</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 9,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 10,95</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,41; 37,99</t>
+          <t>22,83; 43,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 35,51</t>
+          <t>18,2; 36,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 36,07</t>
+          <t>19,36; 39,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 11,88</t>
+          <t>13,27; 33,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,71</t>
+          <t>4,67; 15,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 10,53</t>
+          <t>3,73; 14,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 22,27</t>
+          <t>3,83; 14,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 19,99</t>
+          <t>4,16; 14,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 20,7</t>
+          <t>14,34; 26,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,97; 22,53</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 25,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 20,47</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,19; 45,96</t>
+          <t>23,79; 50,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,61; 44,23</t>
+          <t>21,21; 44,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,8; 47,75</t>
+          <t>23,86; 46,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 19,14</t>
+          <t>18,09; 39,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,36</t>
+          <t>4,09; 23,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,63</t>
+          <t>6,18; 27,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,32; 31,32</t>
+          <t>7,29; 29,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 28,16</t>
+          <t>3,44; 19,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 29,99</t>
+          <t>17,58; 36,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 33,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18,44; 35,05</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 27,54</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,63; 38,63</t>
+          <t>14,59; 42,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 36,5</t>
+          <t>12,28; 39,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,56; 37,18</t>
+          <t>14,12; 41,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,71</t>
+          <t>19,82; 49,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 12,04</t>
+          <t>4,04; 21,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 11,29</t>
+          <t>3,86; 21,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,3; 23,01</t>
+          <t>2,05; 19,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,82; 20,85</t>
+          <t>3,77; 21,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,92; 20,07</t>
+          <t>10,89; 27,83</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 27,1</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 25,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 29,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>11,05%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,99; 23,28</t>
+          <t>15,62; 25,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,59</t>
+          <t>13,45; 21,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,27; 21,1</t>
+          <t>13,43; 22,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,3</t>
+          <t>11,64; 20,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,68</t>
+          <t>4,66; 9,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,19</t>
+          <t>3,57; 7,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,09</t>
+          <t>3,85; 8,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,81</t>
+          <t>4,15; 9,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,8</t>
+          <t>10,56; 15,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 13,44</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 13,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 13,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6852</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15769</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24485</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27177</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17248</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24129</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23095</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26931</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 34448</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9362</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7703</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11942</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8753</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4715</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6638</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6222</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18115</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9730</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14341</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18164</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2367; 28792</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20420</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2018; 24727</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2420; 32880</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2586; 23575</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16436</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1951; 16124</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21616</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7023; 35369</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2501; 22452</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4900; 29517</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6299; 38949</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18693</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18905</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11551</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16847</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9897</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7334</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28590</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22666</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16781</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24182</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8020; 37254</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9552; 33579</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4233; 23120</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6788; 35340</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2528; 22636</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11410</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1637; 12923</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1895; 20691</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15265; 53985</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11296; 40923</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7431; 31444</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10780; 45995</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60777</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43289</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>45781</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43427</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14342</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13316</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17673</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80076</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57631</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59097</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61100</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42615; 80475</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29336; 58194</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30246; 61664</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26718; 66703</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10199; 34924</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6944; 26395</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6525; 24444</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8849; 31425</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>58068; 105954</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38080; 78201</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42571; 83102</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40688; 84772</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56405</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41964</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43276</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42708</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13265</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13017</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14442</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>69670</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>54982</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>57718</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>54642</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37452; 79719</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28010; 58479</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29389; 57222</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27978; 61498</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4751; 26998</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5802; 25813</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6755; 27055</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4713; 27400</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>48098; 100699</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>37079; 74850</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>39808; 75665</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36489; 80335</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>28549</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21859</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23871</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>45818</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14647</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8159</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21609</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>43196</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32389</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32030</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67427</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15954; 46528</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10723; 34617</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12727; 37532</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27321; 67981</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5558; 29565</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4059; 22441</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2270; 21321</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7827; 44592</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26899; 68724</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19287; 52154</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18524; 50215</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>40829; 100134</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>177489</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>131032</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>137774</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>165617</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>69010</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46366</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>47785</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>69918</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>246500</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>177398</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>185559</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>235534</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>139204; 230447</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>102760; 165766</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>105974; 175253</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>121139; 216893</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48219; 97125</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30053; 67181</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>31705; 69099</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>45677; 102316</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>203500; 302389</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>143280; 215754</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>150604; 225131</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>190078; 296508</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>